--- a/data/output/FV2410_FV2404/INVOIC/31004.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="326">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="326">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1102,6 +1102,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U189" totalsRowShown="0">
+  <autoFilter ref="A1:U189"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,7 +1421,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9965,5 +9998,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/INVOIC/31004.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31004.xlsx
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -2991,7 +2991,7 @@
         <v>307</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3179,7 +3179,7 @@
         <v>307</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3367,7 +3367,7 @@
         <v>308</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3555,7 +3555,7 @@
         <v>308</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3743,7 +3743,7 @@
         <v>309</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2"/>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2"/>
@@ -4831,7 +4831,7 @@
         <v>313</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N60" s="2"/>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7733,7 +7733,7 @@
         <v>318</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7979,7 +7979,7 @@
         <v>319</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8505,7 +8505,7 @@
         <v>322</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N151" s="2"/>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9525,7 +9525,7 @@
         <v>324</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -9717,7 +9717,7 @@
         <v>324</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10383,7 +10383,7 @@
         <v>324</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10537,7 +10537,7 @@
         <v>326</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N187" s="2"/>
